--- a/docs/7组-视觉项目-计划表.xlsx
+++ b/docs/7组-视觉项目-计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlen\workspace\visual\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E63460-72D1-4AA3-A2DF-D4B71D1F648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8A4CC-D228-4848-A9BB-F2B094F329A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>2024 8月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景颜色说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +144,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +194,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -466,15 +506,15 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="7" customWidth="1"/>
     <col min="8" max="8" width="6.5546875" customWidth="1"/>
     <col min="9" max="9" width="7.77734375" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="11" max="11" width="7.5546875" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" style="7" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
     <col min="16" max="16" width="8.21875" customWidth="1"/>
   </cols>
@@ -483,20 +523,20 @@
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -514,10 +554,10 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>3</v>
       </c>
       <c r="H2" s="1">
@@ -535,10 +575,10 @@
       <c r="L2" s="1">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="6">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="6">
         <v>10</v>
       </c>
       <c r="O2" s="1">
@@ -549,7 +589,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -561,36 +601,71 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/7组-视觉项目-计划表.xlsx
+++ b/docs/7组-视觉项目-计划表.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlen\workspace\visual\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8A4CC-D228-4848-A9BB-F2B094F329A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED61A963-2D5C-4397-8AEB-572F7EE4FBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="进度表" sheetId="1" r:id="rId1"/>
+    <sheet name="项目需求" sheetId="2" r:id="rId1"/>
+    <sheet name="里程碑计划" sheetId="6" r:id="rId2"/>
+    <sheet name="进度表" sheetId="1" r:id="rId3"/>
+    <sheet name="产品代办列表" sheetId="3" r:id="rId4"/>
+    <sheet name="项目风险" sheetId="4" r:id="rId5"/>
+    <sheet name="开发模式" sheetId="5" r:id="rId6"/>
+    <sheet name="web服务器" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>2024 8月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目数据集获取、数据预处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目总结-组内复盘、展示PPT、文件归档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无线胶囊内窥镜结肠疾病辅助诊断系统（暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +81,409 @@
   </si>
   <si>
     <t>周末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目资源：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘佳明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辰飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曼雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨川、王曼雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辰飞、刘佳明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目数据集获取、数据预处理（分析标注数据Smoke-Fall-YOLO-datasets效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸烟、跌倒行为目标检测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸烟、跌倒行为目标检测系统项目需求说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、项目概述
+本项目旨在构建 “吸烟、跌倒行为目标检测系统”，借助计算机视觉技术，精准识别视频或图像中的吸烟、跌倒行为。通过打造数据集、训练优化模型并进行应用部署，为特定场景（如公共区域、养老场所等 ）的安全监管提供智能解决方案，助力及时发现危险行为，保障人员安全，提升管理效率。
+二、项目目标
+1.	构建高质量 Smoke-Fall-YOLO-datasets 数据集，涵盖丰富多样的吸烟、跌倒场景数据，确保数据标注准确，满足模型训练需求。
+2.	基于 YOLO 框架训练目标检测模型，实现对吸烟、跌倒行为的高精度识别，在测试集上，吸烟行为识别准确率不低于 90%，跌倒行为识别准确率不低于 90% ，推理速度满足实时性要求（如单张图片推理时间不超过 1000 毫秒 ）。
+3.	完成模型的 web 应用搭建，通过streamlit实现便捷部署与运行，支持实时视频流接入（可选）、图像上传检测，提供直观清晰的检测结果展示界面。
+4.	完成项目全流程闭环，包括组内复盘、成果展示 PPT 制作与汇报，以及项目文件规范归档，沉淀技术经验与资产。
+项目验收标准
+1.	数据集验收：Smoke-Fall-YOLO-datasets 涵盖至少 2 个不同场景、2 种行为姿态，标注准确率不低于 99% ，通过数据抽样检查验证。
+2.	模型验收：在测试集上，吸烟行为识别准确率≥90% 、召回率≥90% ，跌倒行为识别准确率≥90% 、召回率≥90% ，推理速度满足单张图片推理时间≤3000 毫秒（暂定）。
+3.	web 应用验收：支持图像上传、实时视频流（可选）检测功能，检测结果展示清晰准确，应用在模拟真实场景测试中稳定运行（无崩溃、严重延迟 ），通过验证。
+4.	汇报验收：项目成果展示 PPT 清晰传达项目价值、成果与过程，通过相关方验证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型训练评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据包标注的准确性抽样验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视化的数据描述性统计、分布比例分析柱状图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片是否能够打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片是否有吸烟跌倒之外的异常数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量比较小，不一定够，尝试寻找更多的类似的标注数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个以上的模型进行训练，推荐yolo8，yolo11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留训练loss曲线图、准确率曲线图、混淆矩阵,便于ppt对比各个模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选模型的性能评估表，包括准确率、召回率、精准率、F1，PPT需要使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出一个best.pt给到web部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型结果的解析，在notebook体现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建web框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传代码到git地址：https://github.com/arlenye/visual/tree/main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套用老师提供的模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面、项目背景介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想一个高大上一点的项目名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集介绍：来源，描述性统计、可视化统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小模型和不同的参数都尝试，找出最优模型和参数配置、数据增强参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据预处理（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验环境介绍，软硬件配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的模型介绍、模型名称、参数等，找3个最优的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总的模型评估表准确率、召回率、精准率、F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混淆矩阵比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练曲线比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险应对措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险所有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险状态</t>
+  </si>
+  <si>
+    <t>风险备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有数据集训练数据可能不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型的性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型训练初步评估验证、寻找更多的已标注跌倒、吸烟数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险评估日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scrum 开发模式介绍
+Scrum 是一种敏捷开发框架，旨在通过迭代、增量的方式高效交付有价值的产品。它强调团队协作、适应性规划和持续改进，适用于需求快速变化的复杂项目。
+3355： 3种角色、3个工件、5个活动、5个核心价值观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定题定方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web系统部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117.72.170.152
+root
+zDiwPWUbK2G6!ij
+到期时间：2025-08-17 23:59:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Scrum裁剪，部分用于我们项目
+2中角色：SM、Team
+1个工件：产品代办列表
+4个活动： 1个冲刺迭代周期9天、计划会议、每日晨会、评审会
+5个核心价值观：
+承诺（Commitment）：团队承诺达成 sprint 目标，全力以赴完成任务。
+专注（Focus）：团队专注于 sprint 目标和当前任务，避免分心。
+开放（Openness）：团队公开透明地分享项目进展、问题和挑战。
+尊重（Respect）：团队成员相互尊重，认可彼此的能力和贡献。
+勇气（Courage）：团队有勇气面对困难、解决问题，并承担责任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日站会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日站会：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>：同步进度、识别障碍，确保团队朝着 sprint 目标前进。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核心问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：已经完成的任务；计划要完成的任务；有没有卡点？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审会：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：展示 sprint 交付的产品增量，收集反馈，调整产品待办列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程：团队演示增量功能，团队成员提供意见，根据反馈更新需求。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +529,40 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,11 +639,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,21 +959,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F520B56-9D55-4417-807F-EC8F435E489C}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:K30"/>
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AA367-30A6-43E4-BABD-1DEADD6E2E6F}">
+  <dimension ref="A3:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>45870</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20">
+        <v>45872</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="20">
+        <v>45878</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="20">
+        <v>45879</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.21875" customWidth="1"/>
     <col min="2" max="2" width="45.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="7.21875" style="7" customWidth="1"/>
@@ -521,32 +1489,32 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>31</v>
@@ -589,55 +1557,67 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
+      <c r="A3" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="8"/>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="8"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="8"/>
       <c r="M8" s="8"/>
@@ -647,25 +1627,60 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -676,4 +1691,1067 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78F603-D835-4773-B8B4-6F9BA53DAB14}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
+    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F2" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F3" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F5" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F6" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F9" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F10" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F11" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F12" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F13" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F14" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F16" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F17" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F18" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F19" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F22" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F23" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F24" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F25" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F26" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F27" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F28" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F29" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F30" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="14">
+        <v>45871</v>
+      </c>
+      <c r="F31" s="14">
+        <v>45878</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4ABB8-9DE4-4488-A278-E7D795EE6C35}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="17">
+        <v>45871</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D00D684-5884-49E0-84BE-C9F6B00CD6B3}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="22">
+        <v>45871.375</v>
+      </c>
+      <c r="L11" s="22">
+        <v>45871.402777777781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="22">
+        <v>45872.375</v>
+      </c>
+      <c r="L12" s="22">
+        <v>45872.388888888891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="22">
+        <v>45875.833333333336</v>
+      </c>
+      <c r="L13" s="22">
+        <v>45875.847222222219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="22">
+        <v>45878.375</v>
+      </c>
+      <c r="L14" s="22">
+        <v>45878.388888888891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="22">
+        <v>45879.416666666664</v>
+      </c>
+      <c r="L15" s="22">
+        <v>45879.458333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H6"/>
+    <mergeCell ref="A8:H28"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594F21F-40F1-4E13-8F68-D84C306AA19C}">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>